--- a/waveprocessed/PROCESSED-20251113-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251113-tett6roof/meta.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF2"/>
+  <dimension ref="A1:DF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,27 +949,27 @@
       </c>
       <c r="DB1" t="inlineStr">
         <is>
+          <t>PROCESSED_folder</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
           <t>Probe 1 Frequency (FFT)</t>
         </is>
       </c>
-      <c r="DC1" t="inlineStr">
+      <c r="DD1" t="inlineStr">
         <is>
           <t>Probe 2 Frequency (FFT)</t>
         </is>
       </c>
-      <c r="DD1" t="inlineStr">
+      <c r="DE1" t="inlineStr">
         <is>
           <t>Probe 3 Frequency (FFT)</t>
         </is>
       </c>
-      <c r="DE1" t="inlineStr">
+      <c r="DF1" t="inlineStr">
         <is>
           <t>Probe 4 Frequency (FFT)</t>
-        </is>
-      </c>
-      <c r="DF1" t="inlineStr">
-        <is>
-          <t>PROCESSED_folder</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>268.59176</v>
+        <v>268.57</v>
       </c>
       <c r="P2" t="n">
         <v>3950</v>
@@ -1059,13 +1059,13 @@
         <v>1.5385</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.048927717267305</v>
+        <v>2.048927717267306</v>
       </c>
       <c r="Z2" t="n">
         <v>3.066572458475788</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.368190619240341</v>
+        <v>5.368190619240342</v>
       </c>
       <c r="AB2" t="n">
         <v>0.02902306111509137</v>
@@ -1082,7 +1082,7 @@
         <v>9455</v>
       </c>
       <c r="AH2" t="n">
-        <v>269.05736</v>
+        <v>268.99</v>
       </c>
       <c r="AI2" t="n">
         <v>4000</v>
@@ -1112,16 +1112,16 @@
         <v>1.5385</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.048927717267305</v>
+        <v>2.048927717267306</v>
       </c>
       <c r="AS2" t="n">
         <v>3.066572458475788</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.368190619240341</v>
+        <v>5.368190619240342</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.02911526286236843</v>
+        <v>0.02911526286236844</v>
       </c>
       <c r="AV2" t="n">
         <v>0.8300751689623258</v>
@@ -1135,7 +1135,7 @@
         <v>12544</v>
       </c>
       <c r="BA2" t="n">
-        <v>269.80872</v>
+        <v>269.77</v>
       </c>
       <c r="BB2" t="n">
         <v>4500</v>
@@ -1165,16 +1165,16 @@
         <v>1.5385</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.048927717267305</v>
+        <v>2.048927717267306</v>
       </c>
       <c r="BL2" t="n">
         <v>3.066572458475788</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.368190619240341</v>
+        <v>5.368190619240342</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.02920746460964543</v>
+        <v>0.02920746460964544</v>
       </c>
       <c r="BO2" t="n">
         <v>0.8300751689623258</v>
@@ -1188,7 +1188,7 @@
         <v>12545</v>
       </c>
       <c r="BT2" t="n">
-        <v>270.19496</v>
+        <v>270.2</v>
       </c>
       <c r="BU2" t="n">
         <v>4500</v>
@@ -1218,16 +1218,16 @@
         <v>1.5385</v>
       </c>
       <c r="CD2" t="n">
-        <v>2.048927717267305</v>
+        <v>2.048927717267306</v>
       </c>
       <c r="CE2" t="n">
         <v>3.066572458475788</v>
       </c>
       <c r="CF2" t="n">
-        <v>5.368190619240341</v>
+        <v>5.368190619240342</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.02910501822378207</v>
+        <v>0.02910501822378208</v>
       </c>
       <c r="CH2" t="n">
         <v>0.8300751689623258</v>
@@ -1275,8 +1275,10 @@
       <c r="DA2" t="n">
         <v>1.002721033625528</v>
       </c>
-      <c r="DB2" t="n">
-        <v>0.6499837504062399</v>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
       </c>
       <c r="DC2" t="n">
         <v>0.6499837504062399</v>
@@ -1287,10 +1289,2886 @@
       <c r="DE2" t="n">
         <v>0.6499837504062399</v>
       </c>
-      <c r="DF2" t="inlineStr">
+      <c r="DF2" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-nowind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:26:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+      <c r="K3" t="n">
+        <v>580</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.849999999999994</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.46473682383476</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.470958810408151</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.330741926478114</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1389036475183248</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.332265594790045</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.009937299428746422</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5.109999999999985</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>4.764172512009643</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>4.780234455321449</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.769516667500678</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2870346892296441</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6.775599222533063</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0104700206352359</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4.685000000000031</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4.529616432010443</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>4.534792249990878</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6.420427419951952</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.1366299096744683</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>6.421881031838609</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.009599226355397393</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>4.889999999999986</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>4.55845385710621</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>4.567881665772925</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>6.464856738559091</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.1209979828152048</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>6.465988954671841</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.0100192565374371</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.01047038287201498</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1.993203138117973</v>
+      </c>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>1.067066817147287</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.9507666694671687</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>1.00636641656719</v>
+      </c>
+      <c r="DB3" t="inlineStr">
         <is>
           <t>PROCESSED-20251113-tett6roof</t>
         </is>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-nowind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:10:22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" t="n">
+        <v>580</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R4" t="n">
+        <v>16.782</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15.47118888520432</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15.63633054529925</v>
+      </c>
+      <c r="U4" t="n">
+        <v>22.1604006437392</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.790068380971786</v>
+      </c>
+      <c r="W4" t="n">
+        <v>22.23258198004882</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1142291869391728</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>16.95662500000003</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15.60483756739707</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>15.63571286140404</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>22.16823773450984</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.796019688892619</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>22.24087343106461</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.115417798056397</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>11.72000000000003</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>10.16099133249193</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>9.982052026791816</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>14.1481755937165</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.9819887676947914</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>14.18221331705718</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.0797739286692354</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>11.97500000000002</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>10.57923493858625</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>10.42531591863569</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>14.78683263613222</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1.538181810275313</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>14.86662109191079</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.08150962421621959</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.1154483984065951</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="n">
+        <v>1.008638552808347</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.6511436782732762</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1.041161693028602</v>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC4" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>1.299826689774697</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:08:06</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>40</v>
+      </c>
+      <c r="K5" t="n">
+        <v>580</v>
+      </c>
+      <c r="L5" t="n">
+        <v>30</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.414999999999992</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.823183711811956</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7.732526771658283</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10.96242803326361</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.021131359922834</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11.00988363420349</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.05727795305047898</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.539999999999992</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.512481246199147</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>7.623165263513712</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>10.81554678132595</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.334633275989068</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>10.8975822162729</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.05812878420096144</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>4.724999999999994</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4.323150470516596</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>4.350858132791348</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>6.159907147638667</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.3547009822265755</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>6.170110927229951</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.03216141748823686</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>4.940000000000026</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>4.516689190015959</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>4.550798463013243</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>6.443504927646345</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.3992269192931915</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>6.455860739335312</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.0336248470670669</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.05814419569886811</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="n">
+        <v>0.9602843960900866</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0.5754623976870283</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>1.044767981318086</v>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:23:28</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J6" t="n">
+        <v>40</v>
+      </c>
+      <c r="K6" t="n">
+        <v>580</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.490000000000009</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.888370382137218</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8.902653780747572</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12.60745131773329</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2615054453026831</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12.61016311658726</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01944432403686675</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.659999999999997</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>9.320232764156783</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>9.349100963432806</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>13.23596131692082</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.3187290227860898</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>13.23979834336575</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01979264174880217</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>9.445000000000022</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8.998638508131421</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>9.020517659632313</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>12.76893679099696</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.2479633341126553</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>12.77134419658088</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.01935212228958975</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>9.615000000000009</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>9.03487340262007</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>9.056478451834783</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>12.82214090567734</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.237999349226677</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>12.82434953887629</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.01970044000152517</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1.993222267452576</v>
+      </c>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.01979332652517905</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>1.993203138117973</v>
+      </c>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="n">
+        <v>1.048587352175093</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0.9654950402888938</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>1.004026708535509</v>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-nowind-nowave-freq1300-per40-depth580-mstop30-run1.csv</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:06:28</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40</v>
+      </c>
+      <c r="K7" t="n">
+        <v>580</v>
+      </c>
+      <c r="L7" t="n">
+        <v>30</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.04499999999998749</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.001121612569711128</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.002756446477178402</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.005718307937832363</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.01570310632939529</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01671186985541029</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9232</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4.761201086064131</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.319663923788107</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12.47434684548802</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0002142540488728263</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.992044024522438</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.429445324727152</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.2200000000000273</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.01383000732085631</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.02857499214500419</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.08837479428376437</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.1367816149230967</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.1628475190037232</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.025777777777778</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>3.908915257338599</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.60739870105486</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>10.24135797422713</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0008599613566145985</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.9787600468623101</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.567004799555214</v>
+      </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.04499999999998749</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.005744110784569817</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.01174336482107343</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.02343183180151267</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.04575235388411374</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.05140358574566133</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.8792380952380952</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>5.231619913490253</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.20100187151933</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>13.70684417334446</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.0002354228961069959</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.9953822304573618</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.365957501186412</v>
+      </c>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.08500000000000796</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.002129431812910728</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.004436194125615608</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.009149683148973494</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.01827654582425401</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.02043890478946135</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.6838518518518518</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>8.609044975343432</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.7298353447072029</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>22.55569783539979</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.0007317688229042602</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.9999079695453716</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>1.067241892715255</v>
+      </c>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.001497859842359787</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="n">
+        <v>12.33046748434553</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.4153367855349886</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.3707156586587672</v>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC7" t="n">
+        <v>1.083188908145581</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.9748700173310225</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>1.13734835355286</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1.462305025996534</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:13:10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>40</v>
+      </c>
+      <c r="K8" t="n">
+        <v>580</v>
+      </c>
+      <c r="L8" t="n">
+        <v>30</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R8" t="n">
+        <v>26.14162499999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>22.75401383226536</v>
+      </c>
+      <c r="T8" t="n">
+        <v>22.73657371653815</v>
+      </c>
+      <c r="U8" t="n">
+        <v>32.35148773854499</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4.735122399204909</v>
+      </c>
+      <c r="W8" t="n">
+        <v>32.69617933387138</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.1779368709938478</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>24.59662500000002</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>22.52843153723217</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>22.35088360837119</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>31.66707841846137</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2.093391488865637</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>31.73619610927933</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.1674205979738847</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>18.02999999999999</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>15.9102117780071</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>15.97960807881907</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>22.65377377393175</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1.885899445029984</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>22.73213766712762</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.7691666666666667</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>6.809582094531432</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.9226976369409542</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>17.84110508767235</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.1227767651644016</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.9992581318692667</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.199606895264513</v>
+      </c>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>18.37500000000001</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>16.15787893864201</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>16.27760005290235</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>23.14735346006549</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>3.892179268298839</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>23.47230350139886</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.7691666666666667</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>6.809582094531432</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.9226976369409542</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>17.84110508767235</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.1251260709870152</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.9992581318692667</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1.199606895264513</v>
+      </c>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.1674649856594466</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="n">
+        <v>0.990086043864783</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.706228116756051</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>1.015566553361487</v>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC8" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>1.300108342361864</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>1.300108342361864</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:35:12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>40</v>
+      </c>
+      <c r="K9" t="n">
+        <v>580</v>
+      </c>
+      <c r="L9" t="n">
+        <v>30</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.585000000000008</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.529046565807</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.545058653798318</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10.69182250769127</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.329074950945369</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10.7741128990374</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.05843508341513523</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9.274999999999977</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>7.695264194023932</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>7.698276320933147</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>10.92079591841597</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.587495671408587</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>11.03557547201015</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.0631316713657982</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>4.748125000000005</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>4.298652906865373</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>4.342452515563213</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>6.149376937053908</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.411396388871564</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>6.163122885578955</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.03231882125107619</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>5.164999999999992</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>4.473551514851751</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>4.455187438226599</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>6.311389941111753</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.5629158935460172</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>6.336443583902039</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.03515634313793509</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.06314840926311487</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="n">
+        <v>1.022076849540525</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.558610178738719</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>1.04068684115134</v>
+      </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC9" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>1.299826689774697</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run3.csv</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:37:22</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K10" t="n">
+        <v>580</v>
+      </c>
+      <c r="L10" t="n">
+        <v>30</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.844999999999999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.495042445971214</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7.542812715994216</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10.69454968049252</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.342666462164123</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.77850388955457</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.06020481220813868</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9.486625000000036</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>7.713028804294415</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7.770804522504227</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>11.02405027167653</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.42866321706439</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>11.11623870651598</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.06457212850356539</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>4.810000000000002</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>4.270011258334289</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4.273563857763413</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>6.051283060824218</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.4257562133370325</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>6.066242249977594</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.03273998267056498</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>5.23662500000001</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>4.508922816863958</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>4.528138126810433</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>6.411957148108566</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.515222658491856</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>6.432623792590698</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.03564386938716167</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.06458924830465776</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="n">
+        <v>1.029084072557904</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.5536101791758975</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>1.05595103714618</v>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251113-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-11-13T13:33:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="n">
+        <v>580</v>
+      </c>
+      <c r="L11" t="n">
+        <v>30</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>268.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9.012000000000015</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7.589700787973445</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.562621054090918</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10.72438278779763</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.561865129429895</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10.83751857492014</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.06134152262518336</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>9455</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>268.99</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9.405000000000001</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>7.648529647173817</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7.694005679415478</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>10.91015345161025</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.660343388709633</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>11.03576859607499</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.06401653576230011</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="n">
+        <v>12544</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>269.77</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4.679999999999978</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4.208029538591402</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4.232413634891929</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>5.994004366084904</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.4165074893586085</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>6.008457941047496</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.03185511827406306</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="n">
+        <v>12545</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>5.194999999999993</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>4.440112917778618</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>4.406550680851361</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>6.240463752562203</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.5814766837244281</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>6.267495750358184</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.03536054261405089</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>1.199863797070839</v>
+      </c>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0.06403350826087298</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="n">
+        <v>1.007751143403913</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0.5501749660009879</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>1.055152507143499</v>
+      </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251113-tett6roof</t>
+        </is>
+      </c>
+      <c r="DC11" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>1.299826689774697</v>
       </c>
     </row>
   </sheetData>
